--- a/app/assets/downloads/Clydesdale-status-report-June-2023.xlsx
+++ b/app/assets/downloads/Clydesdale-status-report-June-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/Prototypes/ukef/prototypekit-stb-bank/app/assets/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0BF4C-4C83-3F43-9657-194619A1A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CACE6F-BFBB-DC4D-8A46-D75C929F04D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="-21760" windowWidth="41460" windowHeight="20200" xr2:uid="{6BDF98CE-C6B7-004B-B507-299FF645EC01}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>2.5m cash facility</t>
   </si>
   <si>
-    <t>Innovate Solutions Fuarantees</t>
-  </si>
-  <si>
     <t>1m cash facility</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>SynopSolutions Guarantees</t>
+  </si>
+  <si>
+    <t>Innovate Solutions Guarantees</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <v>20001826</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <v>20001932</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4">
         <v>20001987</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4">
         <v>20002004</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4">
         <v>20002017</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>20002154</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4">
         <v>20002167</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4">
         <v>20002193</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <v>20002198</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
         <v>20002598</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4">
         <v>20002896</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4">
         <v>20002983</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <v>20003073</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4">
         <v>20003195</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <v>20001826</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <v>20001932</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4">
         <v>20001987</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4">
         <v>20002004</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4">
         <v>20002017</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>20002154</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4">
         <v>20002167</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4">
         <v>20002193</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <v>20002198</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
         <v>20002598</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4">
         <v>20002896</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4">
         <v>20002983</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <v>20003073</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4">
         <v>20003195</v>
